--- a/A-开发相关文档素材/6.二期文档/语音process协议.xlsx
+++ b/A-开发相关文档素材/6.二期文档/语音process协议.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="130">
   <si>
     <t>{</t>
   </si>
@@ -486,6 +486,10 @@
   </si>
   <si>
     <t>客户端上下文的过程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果设置为"",则不对此属性忽略放置内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1039,8 +1043,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:I42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1051,7 +1055,8 @@
     <col min="5" max="5" width="4.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5.875" customWidth="1"/>
     <col min="7" max="7" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="24" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="35.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9">
@@ -1456,7 +1461,9 @@
       <c r="H25" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="I25" s="10"/>
+      <c r="I25" s="10" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="26" spans="2:9">
       <c r="B26" s="5"/>
@@ -1472,7 +1479,9 @@
       <c r="H26" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="I26" s="10"/>
+      <c r="I26" s="10" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="27" spans="2:9">
       <c r="B27" s="5"/>
@@ -1664,7 +1673,9 @@
       <c r="H38" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="I38" s="10"/>
+      <c r="I38" s="10" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="39" spans="2:9">
       <c r="B39" s="5"/>
@@ -1680,7 +1691,9 @@
       <c r="H39" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="I39" s="10"/>
+      <c r="I39" s="10" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="40" spans="2:9">
       <c r="B40" s="5"/>
@@ -1696,7 +1709,9 @@
       <c r="H40" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="I40" s="10"/>
+      <c r="I40" s="10" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="41" spans="2:9">
       <c r="B41" s="5"/>
